--- a/biology/Médecine/Génie_biomédical/Génie_biomédical.xlsx
+++ b/biology/Médecine/Génie_biomédical/Génie_biomédical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9nie_biom%C3%A9dical</t>
+          <t>Génie_biomédical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le génie biomédical (GBM) est une application des principes et des techniques de l'ingénierie dans le domaine médical visant au contrôle des systèmes biologiques ou au développement d’appareils servant au diagnostic et au traitement des patients. Ce domaine est un mélange de médecine, de biologie, d'ingénierie et de physique.
 Cette discipline relativement récente nécessite de nombreux travaux de recherche et développement couvrant de vastes domaines d'activité, comme :
@@ -507,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9nie_biom%C3%A9dical</t>
+          <t>Génie_biomédical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,9 +537,11 @@
           <t>Disciplines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génie biomédical est considéré comme un domaine interdisciplinaire, résultant d'un large éventail de disciplines. En raison de sa grande diversité, il n'est pas rare pour un ingénieur biomédical de choisir un domaine particulier. Les principaux domaines sont les suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le génie biomédical est considéré comme un domaine interdisciplinaire, résultant d'un large éventail de disciplines. En raison de sa grande diversité, il n'est pas rare pour un ingénieur biomédical de choisir un domaine particulier. Les principaux domaines sont les suivants :
 La bioélectricité
 L'imagerie médicale et l'optique médicale
 Les biomatériaux
@@ -537,11 +551,80 @@
 Dans d'autres cas, il peut y avoir un regroupement des domaines ci-dessus pour en former d'autres. Il s'agit généralement :
 Du génie chimique – associé à la biochimie, au génie tissulaire, moléculaire et cellulaire, aussi qu'aux biomatériaux
 Du génie électrique – associé à la bioélectricité, à la bioinstrumentation, à l'imagerie médicale et aux appareils électroniques médicaux
-Du génie mécanique – associé à la biomécanique, aux dispositifs médicaux et à la modélisation des systèmes médicaux
-Génie clinique
-Le génie clinique est une branche du génie biomédical pour les professionnels responsables de la gestion du matériel dans les hôpitaux. Les tâches d'un ingénieur clinique sont l'acquisition et la gestion de l'inventaire des dispositifs médicaux, l'encadrement des techniciens en génie biomédical (en veillant à la sécurité et au respect de la réglementation), et le conseil technique à l'usage des dispositifs médicaux dans les hôpitaux.
-Dispositifs médicaux
-Les dispositifs médicaux sont des produits de santé qui sont définis dans le Code de
+Du génie mécanique – associé à la biomécanique, aux dispositifs médicaux et à la modélisation des systèmes médicaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Disciplines</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Génie clinique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génie clinique est une branche du génie biomédical pour les professionnels responsables de la gestion du matériel dans les hôpitaux. Les tâches d'un ingénieur clinique sont l'acquisition et la gestion de l'inventaire des dispositifs médicaux, l'encadrement des techniciens en génie biomédical (en veillant à la sécurité et au respect de la réglementation), et le conseil technique à l'usage des dispositifs médicaux dans les hôpitaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Disciplines</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dispositifs médicaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les dispositifs médicaux sont des produits de santé qui sont définis dans le Code de
 la Santé publique à l’article L. 5211-1, Cinquième partie, Livre II, Titre I,
 Chapitre I. "On entend par Dispositif Médical tout instrument, appareil, équipement, matière,
 produit (à l'exception des produits d'origine humaine, ou autre article utilisé seul ou en
@@ -556,9 +639,43 @@
 Les organes artificiels ;
 Les implants dentaires ;
 Les verres correcteurs ;
-Les prothèses oculaires et faciales.
-Imagerie médicale
-Les techniques d'imagerie sont souvent utiles au diagnostic médical et mettent en œuvre des technologies complexes comme :
+Les prothèses oculaires et faciales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Disciplines</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imagerie médicale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les techniques d'imagerie sont souvent utiles au diagnostic médical et mettent en œuvre des technologies complexes comme :
 la radiologie conventionnelle ou numérisée ;
 la mammographie ;
 l'ostéodensitométrie ;
@@ -567,37 +684,74 @@
 l'imagerie par résonance magnétique (IRM) ;
 la tomographie par émission de positons (TEP).
 Les quatre premières techniques utilisent des rayons X. L'échographie utilise des ultrasons et l'IRM le phénomène de résonance magnétique nucléaire.
-Génie tissulaire
-Un des buts du génie tissulaire est de créer des organes artificiels pour les patients ayant besoin de greffes d'organes. Des ingénieurs font actuellement des recherches sur les méthodes de création d'organes. Une méthode très prometteuse est celle de l'impression 3D d'organes [1]
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Disciplines</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Génie tissulaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des buts du génie tissulaire est de créer des organes artificiels pour les patients ayant besoin de greffes d'organes. Des ingénieurs font actuellement des recherches sur les méthodes de création d'organes. Une méthode très prometteuse est celle de l'impression 3D d'organes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Ingénieur biomédical en établissement de santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principal débouché professionnel des ingénieurs biomédicaux reste les établissements de santé publics ou privés.
 Ils y exercent une fonction de cadre technique, généralement sous l'autorité de la direction des services techniques ou la direction des services économiques. Leurs quatre principales fonctions sont :
@@ -614,34 +768,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Formations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Écoles du réseau biomédical proposant une formation d'ingénieur diplômé
-Université de technologie de Compiègne (UTC) (Compiègne): Diplôme d'ingénieur Biomédical, Mastère Spécialisé Équipements Biomédicaux, Master TTS Technologies et Territoires de Santé, Doctorat
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Écoles du réseau biomédical proposant une formation d'ingénieur diplômé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Université de technologie de Compiègne (UTC) (Compiègne): Diplôme d'ingénieur Biomédical, Mastère Spécialisé Équipements Biomédicaux, Master TTS Technologies et Territoires de Santé, Doctorat
 Institut supérieur des Technologies Médicales de Tunis (Tunisie) ISTMT, www.istmt.rnu.tn
 École supérieure d'électronique de l'Ouest (ESEO) (Angers)
 Université de Nice Sophia Antipolis - Master(2) professionnel Génie Biomédical
@@ -668,11 +827,45 @@
 École d'ingénieur PHELMA (PHysique, ÉLectronique, MAtériaux) de Grenoble-INP, filière Formation Biomedical Engineering, 2 spécialités possibles : matériaux implantables ou imagerie médicale.
 Télécom Physique Strasbourg
 Université Hassan 1er, Faculté des Sciences et Techniques de Settat (FSTS) - Master Sciences et Techniques : Génie Biomédical Instrumentation et Maintenance (Maroc)
-École Supérieure de Génie Biomédical (ESGB) de l'Université Mohamed VI des Sciences de la Santé - École de formation des ingénieurs d'état dans le domaine du Génie Biomédical.[1]
+École Supérieure de Génie Biomédical (ESGB) de l'Université Mohamed VI des Sciences de la Santé - École de formation des ingénieurs d'état dans le domaine du Génie Biomédical.
 École Nationale Supérieure des arts et Métiers de Rabat (ENSAM Rabat) - Diplôme d'ingénieur d'état en Génie Biomédical (Maroc)
-Institut supérieur de l'électronique et du numérique (ISEN)(Brest)
-Écoles du réseau biomédical proposant une formation de Technicien Supérieur diplômé d'une licence professionnelle biomédicale (BAC +3)
-Plusieurs formations de type Licence (L) ou Licence professionnelle (LP) préparent aux métiers du Biomédical. Elles ont cependant des Dénominations nationales et des Spécialisations différentes, Santé, Maintenance des systèmes pluritechniques, Électricité et électronique.
+Institut supérieur de l'électronique et du numérique (ISEN)(Brest)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Écoles du réseau biomédical proposant une formation de Technicien Supérieur diplômé d'une licence professionnelle biomédicale (BAC +3)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Plusieurs formations de type Licence (L) ou Licence professionnelle (LP) préparent aux métiers du Biomédical. Elles ont cependant des Dénominations nationales et des Spécialisations différentes, Santé, Maintenance des systèmes pluritechniques, Électricité et électronique.
 Université Paul Cézanne Aix-Marseille III et IUT de Marseille - LP de Spécialisation
 Université Paris Descartes (Paris V) et lycée Joseph-Marie-Jacquard de Paris  - LP de Spécialisation :
 IUT de Cachan (Université de Paris Saclay) - LP ELIB
@@ -683,38 +876,40 @@
 Université Claude Bernard Lyon 1 et IUT de Lyon I - LP de Spécialisation
 Université de Bourgogne et IUT de Dijon - Auxerre - LP de Spécialisation
 Haute Ecole Lucia de Brouckère - Anderlecht (Belgique, Bruxelles) - Bachelor en électronique médicale
-Haute École Condorcet[2] - Charleroi (Belgique) - Bachelor en bioélectronique et instrumentation
+Haute École Condorcet - Charleroi (Belgique) - Bachelor en bioélectronique et instrumentation
 Haute Ecole Condorcet - Charleroi (Belgique) - Bachelor en bioinformatique
-Université de Tunis El Manar, Institut supérieur de technologie médical[3].
+Université de Tunis El Manar, Institut supérieur de technologie médical.
 Université Hassan 1er, institut supérieur des sciences de la santé Settat- LP technologue en instrumentation et maintenance biomédicale</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Associations biomédicales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Association Tunisienne de Génie Biomédicale (ATGBM) Association des agents de maintenance biomédicale (AAMB), association des techniciens biomédicaux, accessible aux personnes tant du secteur public que du secteur privé œuvrant pour l’exploitation des dispositifs médicaux (DM). Essentiellement tournés vers la maintenance, c’est en effectuant des opérations correctives, préventives et de contrôle qualité que les métiers de cette filière ont pris leur dimension actuelle. Fort de ses trente années d’existence, les adhérents de l’AAMB font la promotion et la défense du  secteur biomédical par diverses et multiples actions. En participant, en relation avec l’Agence nationale de sécurité du médicament et des produits de santé (AFSSAPS), le  Syndicat national de l’industrie des technologies médicales (SNITEM) et l’Association française des ingénieurs biomédicaux (AFIB), à la conception et au développement des fiches de contrôle devenues réglementaires ainsi qu'à l’étude et à la conception de certaines normes avec l’AFNOR (maintenance et installation des dispositifs médicaux au domicile des patients). Par de nombreuses actions de formations dispensées dans les instituts biomédicaux (IUT de Lorient, Tourcoing, licence biomédicale de Cahors, Technicien supérieur en ingénierie biomédicale hospitalière (TSIBH) et validation des acquis de l'expérience (VAE) à l’UT de Compiègne) où les intervenants dispensent les messages liés aux responsabilités du technicien biomédical vis-à-vis du patient, du soignant, du DM, à la matériovigilance, aux obligations de maintenance… Par la publication trimestrielle d’une gazette développant des thèmes techniques et les informations diverses  et variées de notre branche professionnelle. Par la participation à la genèse du Guide des bonnes pratiques biomédicales (GBPB), support essentiel aidant à la formalisation de nos organisations et piloté par l'Université de technologie de Compiègne. Par la participation directe auprès des autorités de tutelle à certains groupes de travail tels que celui concernant le répertoire des métiers, la mission « De Singly », le code CNEH. Mais c’est surtout par l’organisation annuelle des Journées Techniques Biomédicales que l'association s’est singularisée. Ce patrimoine riche de près de trois décennies permet la rencontre des industriels et l’enrichissement professionnel par des cours thématiques.L’A.A.M.B. est reconnue organisme de formation agréé
 Association des physiciens et ingénieurs biomédicaux du Québec (APIBQ), regroupement des acteurs œuvrant dans le domaine du génie biomédical au Québec. La mission de l'Association est de promouvoir la production, le développement et la diffusion de connaissances en lien avec la technologie médicale, ainsi que de son utilisation optimale au bénéfice de la population. Elle favorise également la synergie entre ses membres.
@@ -723,31 +918,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Génie_biomédical</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9nie_biom%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sites de référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Technologies Biomédicales : Portail biomédical francophone regroupant un forum de discussion, des articles technologiques, un module de benchmarking d'indicateurs de maintenance, un annuaire des membres, une plateforme de téléchargements de fichiers, un espace annonces regroupant les offres d'emploi, et d'autres modules développés spécifiquement pour les ingénieurs et techniciens biomédicaux
 EBME : Portail biomédical anglophone</t>
